--- a/Vendas.xlsx
+++ b/Vendas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipi-\OneDrive\Documentos\GitHub\DP--CC4651--Empresa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4D361C20488DEA4E38A0B1BC5E7FAC5ADEDD9D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{588DD59B-4243-40B4-8DD1-0F293B7A2113}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +54,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +84,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Célula de Verificação" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +387,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Vendas.xlsx
+++ b/Vendas.xlsx
@@ -1,19 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipi-\OneDrive\Documentos\GitHub\DP--CC4651--Empresa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{8420A286-25C5-4014-B6A2-7F6E7C713638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FFBF12C-7A59-4CA8-91D7-C79FD53D410E}"/>
+  <bookViews>
+    <workbookView xWindow="7860" yWindow="4770" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Filipi</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +78,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,49 +410,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Codigo</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Nome</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Produto</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Quantidade</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Total</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" t="str">
-        <v>Filipi</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2">
         <v>1000</v>
-      </c>
-      <c r="E2" t="str">
-        <v>1200</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
-  </ignoredErrors>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Vendas.xlsx
+++ b/Vendas.xlsx
@@ -1,47 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipi-\OneDrive\Documentos\GitHub\DP--CC4651--Empresa\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{8420A286-25C5-4014-B6A2-7F6E7C713638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FFBF12C-7A59-4CA8-91D7-C79FD53D410E}"/>
-  <bookViews>
-    <workbookView xWindow="7860" yWindow="4770" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Produto</t>
-  </si>
-  <si>
-    <t>Filipi</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,14 +50,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -410,44 +374,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Codigo</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Nome</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Produto</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Quantidade</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" t="str">
+        <v>Jean</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Camiseta22</v>
+      </c>
+      <c r="D2" t="str">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
+      <c r="E2" t="str">
+        <v>103,50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+  </ignoredErrors>
 </worksheet>
 </file>